--- a/nr-add-ruim-note/ig/PN13-FHIR-prescmed-medicationUCD-conceptmap.xlsx
+++ b/nr-add-ruim-note/ig/PN13-FHIR-prescmed-medicationUCD-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T13:12:16+00:00</t>
+    <t>2024-12-23T13:13:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-ruim-note/ig/PN13-FHIR-prescmed-medicationUCD-conceptmap.xlsx
+++ b/nr-add-ruim-note/ig/PN13-FHIR-prescmed-medicationUCD-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T13:13:47+00:00</t>
+    <t>2024-12-26T09:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/FrMecicationUcd</t>
+    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-ucd</t>
   </si>
   <si>
     <t>Display</t>
